--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW1.xlsx
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="D154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="E154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="G154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="H154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="I154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="J154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="K154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
       <c r="L154" t="n">
-        <v>1.8849999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="D159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="E159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="I159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="J159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="K159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
       <c r="L159" t="n">
-        <v>6.222499998099999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>4.2110526318</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="D260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="E260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="F260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="G260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="I260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="J260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="K260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
       <c r="L260" t="n">
-        <v>2.1055263159</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>8.936666668066668</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -12225,37 +12225,37 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="F320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="G320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="H320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="I320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="J320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="K320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
       <c r="L320" t="n">
-        <v>0.6616666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="321">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>4.63381579115</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12567,37 +12567,37 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="C329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="D329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="E329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="F329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="G329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="I329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="J329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="K329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
       <c r="L329" t="n">
-        <v>0.94249999985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="E331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="I331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="J331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="K331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="L331" t="n">
-        <v>6.2475000000000005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.34355263145</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>10.4799999968</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>4.2574999987</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="C429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="D429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="E429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="F429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="G429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="H429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="I429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="J429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="K429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
       <c r="L429" t="n">
-        <v>18.006578940000004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="430">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>8.9324999991</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="D520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="E520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="F520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="H520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="I520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="J520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="K520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
       <c r="L520" t="n">
-        <v>1.4036842105999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>0.94749999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>3.7899999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="C608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="D608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="E608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="F608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="H608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="I608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="J608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="K608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
       <c r="L608" t="n">
-        <v>8.656666662466668</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
